--- a/Back/计划任务.xlsx
+++ b/Back/计划任务.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -198,11 +198,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -244,14 +244,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,6 +273,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -273,16 +326,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,10 +355,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,83 +386,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -396,187 +396,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,15 +605,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -633,7 +624,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,6 +644,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -664,6 +664,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,19 +697,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,145 +710,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1199,17 +1199,17 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P36" sqref="P36"/>
+      <selection pane="bottomLeft" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6296296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.8796296296296" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1413,7 +1413,7 @@
         <v>26370</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:6">
+    <row r="11" ht="15.6" spans="1:6">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:6">
+    <row r="12" ht="15.6" spans="1:6">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:6">
+    <row r="13" ht="15.6" spans="1:6">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:6">
+    <row r="14" ht="15.6" spans="1:6">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:6">
+    <row r="15" ht="15.6" spans="1:6">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:6">
+    <row r="16" ht="15.6" spans="1:6">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:6">
+    <row r="17" ht="15.6" spans="1:6">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:6">
+    <row r="18" ht="15.6" spans="1:6">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:6">
+    <row r="19" ht="15.6" spans="1:6">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:6">
+    <row r="20" ht="15.6" spans="1:6">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:6">
+    <row r="21" ht="15.6" spans="1:6">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:6">
+    <row r="22" ht="15.6" spans="1:6">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:6">
+    <row r="23" ht="15.6" spans="1:6">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:6">
+    <row r="24" ht="15.6" spans="1:6">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:6">
+    <row r="25" ht="15.6" spans="1:6">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:6">
+    <row r="26" ht="15.6" spans="1:6">
       <c r="A26" s="5" t="s">
         <v>30</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="27" ht="14.25" spans="1:6">
+    <row r="27" ht="15.6" spans="1:6">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="28" ht="14.25" spans="1:6">
+    <row r="28" ht="15.6" spans="1:6">
       <c r="A28" s="5" t="s">
         <v>32</v>
       </c>
@@ -1761,19 +1761,19 @@
         <v>370</v>
       </c>
       <c r="C28" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D28" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E28" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F28" s="3">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" spans="1:6">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="29" ht="15.6" spans="1:6">
       <c r="A29" s="5" t="s">
         <v>33</v>
       </c>
@@ -1781,19 +1781,19 @@
         <v>380</v>
       </c>
       <c r="C29" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F29" s="3">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" spans="1:6">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="30" ht="15.6" spans="1:6">
       <c r="A30" s="5" t="s">
         <v>34</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="31" ht="14.25" spans="1:6">
+    <row r="31" ht="15.6" spans="1:6">
       <c r="A31" s="5" t="s">
         <v>35</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:6">
+    <row r="32" ht="15.6" spans="1:6">
       <c r="A32" s="5" t="s">
         <v>36</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="1:6">
+    <row r="33" ht="15.6" spans="1:6">
       <c r="A33" s="5" t="s">
         <v>37</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="34" ht="14.25" spans="1:6">
+    <row r="34" ht="15.6" spans="1:6">
       <c r="A34" s="5" t="s">
         <v>38</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="35" ht="14.25" spans="1:6">
+    <row r="35" ht="15.6" spans="1:6">
       <c r="A35" s="5" t="s">
         <v>39</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="1:6">
+    <row r="36" ht="15.6" spans="1:6">
       <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="37" ht="14.25" spans="1:6">
+    <row r="37" ht="15.6" spans="1:6">
       <c r="A37" s="5" t="s">
         <v>41</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="38" ht="14.25" spans="1:6">
+    <row r="38" ht="15.6" spans="1:6">
       <c r="A38" s="5" t="s">
         <v>42</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="1:6">
+    <row r="39" ht="15.6" spans="1:6">
       <c r="A39" s="5" t="s">
         <v>43</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="40" ht="14.25" spans="1:6">
+    <row r="40" ht="15.6" spans="1:6">
       <c r="A40" s="5" t="s">
         <v>44</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="41" ht="14.25" spans="1:6">
+    <row r="41" ht="15.6" spans="1:6">
       <c r="A41" s="5" t="s">
         <v>45</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="42" ht="14.25" spans="1:6">
+    <row r="42" ht="24" spans="1:6">
       <c r="A42" s="5" t="s">
         <v>46</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="43" ht="14.25" spans="1:6">
+    <row r="43" ht="24" spans="1:6">
       <c r="A43" s="5" t="s">
         <v>47</v>
       </c>
@@ -2101,19 +2101,21 @@
         <v>700</v>
       </c>
       <c r="C45" s="3">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <f>SUM(C45:D45)</f>
+        <v>310</v>
       </c>
       <c r="F45" s="3">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25" spans="1:6">
+        <f>SUM(B45:D45)</f>
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="46" ht="24" spans="1:6">
       <c r="A46" s="5" t="s">
         <v>50</v>
       </c>
@@ -2121,19 +2123,21 @@
         <v>550</v>
       </c>
       <c r="C46" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <f>SUM(C46:D46)</f>
+        <v>50</v>
       </c>
       <c r="F46" s="3">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25" spans="1:6">
+        <f>SUM(B46:D46)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="47" ht="24" spans="1:6">
       <c r="A47" s="5" t="s">
         <v>51</v>
       </c>
@@ -2141,19 +2145,21 @@
         <v>150</v>
       </c>
       <c r="C47" s="3">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <f>SUM(C47:D47)</f>
+        <v>260</v>
       </c>
       <c r="F47" s="3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25" spans="1:6">
+        <f>SUM(B47:D47)</f>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="48" ht="15.6" spans="1:6">
       <c r="A48" s="5" t="s">
         <v>52</v>
       </c>
@@ -2173,7 +2179,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="49" ht="14.25" spans="1:6">
+    <row r="49" ht="15.6" spans="1:6">
       <c r="A49" s="5" t="s">
         <v>53</v>
       </c>
@@ -2193,7 +2199,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="50" ht="14.25" spans="1:6">
+    <row r="50" ht="15.6" spans="1:6">
       <c r="A50" s="5" t="s">
         <v>54</v>
       </c>
@@ -2213,7 +2219,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="51" ht="14.25" spans="1:6">
+    <row r="51" ht="24" spans="1:6">
       <c r="A51" s="5" t="s">
         <v>55</v>
       </c>
@@ -2253,7 +2259,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="53" ht="14.25" spans="1:6">
+    <row r="53" ht="15.6" spans="1:6">
       <c r="A53" s="5" t="s">
         <v>57</v>
       </c>
@@ -2273,7 +2279,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="54" ht="14.25" spans="1:6">
+    <row r="54" ht="15.6" spans="1:6">
       <c r="A54" s="5" t="s">
         <v>58</v>
       </c>

--- a/Back/计划任务.xlsx
+++ b/Back/计划任务.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -198,11 +198,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -252,6 +252,60 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,92 +320,18 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -364,14 +344,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -386,6 +358,34 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -396,49 +396,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,133 +576,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,6 +605,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -620,11 +644,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,50 +676,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,6 +693,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -710,10 +710,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -722,133 +722,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1201,15 +1201,15 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H47" sqref="H47"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.6296296296296" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.87962962962963" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.8796296296296" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1413,7 +1413,7 @@
         <v>26370</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="1:6">
+    <row r="11" ht="14.25" spans="1:6">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="1:6">
+    <row r="12" ht="14.25" spans="1:6">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="1:6">
+    <row r="13" ht="14.25" spans="1:6">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="1:6">
+    <row r="14" ht="14.25" spans="1:6">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="1:6">
+    <row r="15" ht="14.25" spans="1:6">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="1:6">
+    <row r="16" ht="14.25" spans="1:6">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="17" ht="15.6" spans="1:6">
+    <row r="17" ht="14.25" spans="1:6">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="1:6">
+    <row r="18" ht="14.25" spans="1:6">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="19" ht="15.6" spans="1:6">
+    <row r="19" ht="14.25" spans="1:6">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="20" ht="15.6" spans="1:6">
+    <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="21" ht="15.6" spans="1:6">
+    <row r="21" ht="14.25" spans="1:6">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -1633,12 +1633,12 @@
         <v>635</v>
       </c>
     </row>
-    <row r="22" ht="15.6" spans="1:6">
+    <row r="22" ht="14.25" spans="1:6">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="C22" s="6">
         <v>15</v>
@@ -1650,10 +1650,10 @@
         <v>45</v>
       </c>
       <c r="F22" s="3">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="23" ht="15.6" spans="1:6">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:6">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -1673,12 +1673,12 @@
         <v>810</v>
       </c>
     </row>
-    <row r="24" ht="15.6" spans="1:6">
+    <row r="24" ht="14.25" spans="1:6">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="6">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="C24" s="6">
         <v>5</v>
@@ -1690,10 +1690,10 @@
         <v>35</v>
       </c>
       <c r="F24" s="3">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="25" ht="15.6" spans="1:6">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:6">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="26" ht="15.6" spans="1:6">
+    <row r="26" ht="14.25" spans="1:6">
       <c r="A26" s="5" t="s">
         <v>30</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="27" ht="15.6" spans="1:6">
+    <row r="27" ht="14.25" spans="1:6">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="28" ht="15.6" spans="1:6">
+    <row r="28" ht="14.25" spans="1:6">
       <c r="A28" s="5" t="s">
         <v>32</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="29" ht="15.6" spans="1:6">
+    <row r="29" ht="14.25" spans="1:6">
       <c r="A29" s="5" t="s">
         <v>33</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="30" ht="15.6" spans="1:6">
+    <row r="30" ht="14.25" spans="1:6">
       <c r="A30" s="5" t="s">
         <v>34</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="31" ht="15.6" spans="1:6">
+    <row r="31" ht="14.25" spans="1:6">
       <c r="A31" s="5" t="s">
         <v>35</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="32" ht="15.6" spans="1:6">
+    <row r="32" ht="14.25" spans="1:6">
       <c r="A32" s="5" t="s">
         <v>36</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="33" ht="15.6" spans="1:6">
+    <row r="33" ht="14.25" spans="1:6">
       <c r="A33" s="5" t="s">
         <v>37</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="34" ht="15.6" spans="1:6">
+    <row r="34" ht="14.25" spans="1:6">
       <c r="A34" s="5" t="s">
         <v>38</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="35" ht="15.6" spans="1:6">
+    <row r="35" ht="14.25" spans="1:6">
       <c r="A35" s="5" t="s">
         <v>39</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="36" ht="15.6" spans="1:6">
+    <row r="36" ht="14.25" spans="1:6">
       <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="37" ht="15.6" spans="1:6">
+    <row r="37" ht="14.25" spans="1:6">
       <c r="A37" s="5" t="s">
         <v>41</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="38" ht="15.6" spans="1:6">
+    <row r="38" ht="14.25" spans="1:6">
       <c r="A38" s="5" t="s">
         <v>42</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="39" ht="15.6" spans="1:6">
+    <row r="39" ht="14.25" spans="1:6">
       <c r="A39" s="5" t="s">
         <v>43</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="40" ht="15.6" spans="1:6">
+    <row r="40" ht="14.25" spans="1:6">
       <c r="A40" s="5" t="s">
         <v>44</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="41" ht="15.6" spans="1:6">
+    <row r="41" ht="14.25" spans="1:6">
       <c r="A41" s="5" t="s">
         <v>45</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="42" ht="24" spans="1:6">
+    <row r="42" ht="14.25" spans="1:6">
       <c r="A42" s="5" t="s">
         <v>46</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="43" ht="24" spans="1:6">
+    <row r="43" ht="14.25" spans="1:6">
       <c r="A43" s="5" t="s">
         <v>47</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="46" ht="24" spans="1:6">
+    <row r="46" ht="14.25" spans="1:6">
       <c r="A46" s="5" t="s">
         <v>50</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="47" ht="24" spans="1:6">
+    <row r="47" ht="14.25" spans="1:6">
       <c r="A47" s="5" t="s">
         <v>51</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="48" ht="15.6" spans="1:6">
+    <row r="48" ht="14.25" spans="1:6">
       <c r="A48" s="5" t="s">
         <v>52</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="49" ht="15.6" spans="1:6">
+    <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="5" t="s">
         <v>53</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="50" ht="15.6" spans="1:6">
+    <row r="50" ht="14.25" spans="1:6">
       <c r="A50" s="5" t="s">
         <v>54</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="51" ht="24" spans="1:6">
+    <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="5" t="s">
         <v>55</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="53" ht="15.6" spans="1:6">
+    <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="5" t="s">
         <v>57</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="54" ht="15.6" spans="1:6">
+    <row r="54" ht="14.25" spans="1:6">
       <c r="A54" s="5" t="s">
         <v>58</v>
       </c>
